--- a/docs/restaurants.xlsx
+++ b/docs/restaurants.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nya/data/programs/web/randomRamen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nya/data/programs/web/randomRamen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E478F38-1B55-0046-9B6B-952265437365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9967E819-FD77-A045-B38F-87A1F68429E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="480" windowWidth="15580" windowHeight="16280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14900" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restaurants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
   <si>
     <t>曜日</t>
     <rPh sb="0" eb="2">
@@ -155,7 +156,7 @@
   </si>
   <si>
     <t>直線距離[km]</t>
-    <rPh sb="15" eb="17">
+    <rPh sb="0" eb="8">
       <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -190,11 +191,45 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>麺遊庵</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11:30 14:00 18:00 22:00</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>つけ麺</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>美楽</t>
+    <rPh sb="0" eb="1">
+      <t>ミラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11:00 14:30 17:00 24:00</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>中華</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラーメンセット・ご飯セット</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1139,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1657,6 +1692,328 @@
         <v>35</v>
       </c>
     </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>4.99</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>4.99</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>4.99</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>4.99</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>4.99</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>4.99</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>4.99</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>2.98</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>2.98</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>2.98</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>2.98</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>2.98</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>2.98</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>2.98</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/restaurants.xlsx
+++ b/docs/restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nya/data/programs/web/randomRamen/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9967E819-FD77-A045-B38F-87A1F68429E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E222C6-5D8C-334C-B7CD-CEFE395C7CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14900" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="restaurants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -173,10 +172,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>11:00 0:00 0:00 5:00</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>11:00 21:00</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -223,6 +218,10 @@
   </si>
   <si>
     <t>ラーメンセット・ご飯セット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>11:00 24:00 0:00 5:00</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1177,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1338,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>6.1</v>
@@ -1361,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>6.1</v>
@@ -1539,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>3.39</v>
@@ -1551,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1562,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>3.39</v>
@@ -1574,7 +1573,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1585,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>3.39</v>
@@ -1597,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1608,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>3.39</v>
@@ -1620,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1631,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>3.39</v>
@@ -1643,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1654,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>3.39</v>
@@ -1666,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1677,7 +1676,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>3.39</v>
@@ -1689,18 +1688,18 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>4.99</v>
@@ -1712,18 +1711,18 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>4.99</v>
@@ -1735,18 +1734,18 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>4.99</v>
@@ -1758,18 +1757,18 @@
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>4.99</v>
@@ -1781,18 +1780,18 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>4.99</v>
@@ -1804,18 +1803,18 @@
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>4.99</v>
@@ -1827,18 +1826,18 @@
         <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>4.99</v>
@@ -1850,18 +1849,18 @@
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>2.98</v>
@@ -1870,21 +1869,21 @@
         <v>1000</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
         <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>2.98</v>
@@ -1893,21 +1892,21 @@
         <v>1000</v>
       </c>
       <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
         <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>2.98</v>
@@ -1916,21 +1915,21 @@
         <v>1000</v>
       </c>
       <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
         <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>2.98</v>
@@ -1939,21 +1938,21 @@
         <v>1000</v>
       </c>
       <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
         <v>41</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>2.98</v>
@@ -1962,21 +1961,21 @@
         <v>1000</v>
       </c>
       <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
         <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>2.98</v>
@@ -1985,21 +1984,21 @@
         <v>1000</v>
       </c>
       <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
         <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <v>2.98</v>
@@ -2008,10 +2007,10 @@
         <v>1000</v>
       </c>
       <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
         <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
